--- a/Scraping/Linkage Disequilibrium/output/output.xlsx
+++ b/Scraping/Linkage Disequilibrium/output/output.xlsx
@@ -484,35 +484,23 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.852679</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.852679</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.484373</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.484373</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.484373</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.484373</t>
-        </is>
+      <c r="C2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -527,32 +515,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
+        <v>-1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -566,33 +544,23 @@
           <t>0.852679</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
+      <c r="C4" t="n">
+        <v>-1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
+        <v>-1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -606,33 +574,23 @@
           <t>0.484373</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
+        <v>-1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -646,33 +604,23 @@
           <t>0.484373</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
+        <v>-1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -686,33 +634,23 @@
           <t>0.484373</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
+      <c r="C7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -726,33 +664,23 @@
           <t>0.484373</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.568062</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.000000</t>
-        </is>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
